--- a/RFIDSolution/Server/wwwroot/ExcelTemplates/StockTemplate.xlsx
+++ b/RFIDSolution/Server/wwwroot/ExcelTemplates/StockTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\source\repos\dongup\RFIDSolution\RFIDSolution\Server\wwwroot\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5E8A00-1663-4EA1-A766-1A0071E52D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849D74CE-1C25-4C3E-B82B-97026B3DF98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{867FD762-95B8-4FC0-820B-E4930BCB9ACC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Kho/Stock</t>
   </si>
@@ -72,13 +72,16 @@
     <t>ID</t>
   </si>
   <si>
-    <t>EPC</t>
-  </si>
-  <si>
     <t>REMARKS</t>
   </si>
   <si>
     <t>BÁO CÁO TỒN KHO/STOCK REPORT</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28892BF-1B2F-4FFE-9916-DFD31249DDB7}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -498,14 +501,15 @@
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="15.85546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="35.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="43.28515625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -519,8 +523,9 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -534,8 +539,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,13 +552,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -587,15 +593,18 @@
         <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="A1:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
